--- a/examples/data/petr_options_chain_test.xlsx
+++ b/examples/data/petr_options_chain_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.hun\Documents\repos\option_monitor2\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C93440A-3B57-4316-BF09-6FEEE6652D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD73A521-4E30-4495-9019-2D700B7AE6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12720" yWindow="1125" windowWidth="10905" windowHeight="15000" xr2:uid="{E3406B22-0C07-4FDD-8D77-7B152E776AF2}"/>
+    <workbookView xWindow="-25155" yWindow="1200" windowWidth="21600" windowHeight="15000" xr2:uid="{E3406B22-0C07-4FDD-8D77-7B152E776AF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD83C95-811F-4F91-BD53-4EF66A5E9EF3}">
   <dimension ref="A1:J557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
